--- a/financial_models/opportunities/0468.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0468.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AC04B24-858A-E14C-9D58-A6455A0781DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3263CD95-91E5-42CD-B76D-1B7D33A5BB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -828,18 +817,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1292,7 +1281,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
@@ -1348,8 +1337,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1372,14 +1361,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1404,7 +1393,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1421,7 +1410,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1429,7 +1418,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1476,7 +1465,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1550,7 +1539,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1626,7 +1615,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,16 +1626,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1706,7 +1695,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1715,10 +1704,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1733,23 +1722,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,33 +1752,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2112,19 +2101,19 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2133,7 +2122,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2148,7 +2137,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -2167,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>218</v>
       </c>
@@ -2185,7 +2174,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2205,7 +2194,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2218,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>215</v>
       </c>
@@ -2244,15 +2233,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.0866400003433228</v>
+        <v>1.0845636924107869</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="177" t="s">
         <v>213</v>
       </c>
@@ -2260,7 +2249,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2271,7 +2260,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2285,7 +2274,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2297,8 +2286,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2309,7 +2298,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2320,7 +2309,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2334,7 +2323,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2343,8 +2332,8 @@
       </c>
       <c r="D17" s="185"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="182" t="s">
         <v>204</v>
       </c>
@@ -2357,7 +2346,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="174" t="s">
         <v>185</v>
       </c>
@@ -2368,7 +2357,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="174" t="s">
         <v>186</v>
       </c>
@@ -2379,7 +2368,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="174" t="s">
         <v>187</v>
       </c>
@@ -2391,7 +2380,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="174" t="s">
         <v>188</v>
       </c>
@@ -2404,10 +2393,10 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.24360770349851979</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.24407407039862916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="174" t="s">
         <v>189</v>
       </c>
@@ -2420,10 +2409,10 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>3.3061954331849455E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3.2998780881559872E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="174" t="s">
         <v>214</v>
       </c>
@@ -2439,7 +2428,7 @@
         <v>0.81487883299432629</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="176" t="s">
         <v>191</v>
       </c>
@@ -2452,11 +2441,11 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>2.6941486762449191E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.6890008055000993E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2474,919 +2463,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>1.5156381859451658</v>
+        <v>1.5114639373845602</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>2.0492305925434726</v>
+        <v>2.0450473640113827</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>1.6393844740347783</v>
+        <v>1.636037891209106</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3450,7 +3439,7 @@
       <selection pane="topRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3458,7 +3447,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3466,7 +3455,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3483,7 +3472,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3509,13 +3498,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3565,7 +3554,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3587,7 +3576,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3638,7 +3627,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3660,7 +3649,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3711,7 +3700,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3735,7 +3724,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3786,7 +3775,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3804,7 +3793,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3855,7 +3844,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3873,7 +3862,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3891,7 +3880,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3909,7 +3898,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3931,7 +3920,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3949,7 +3938,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4000,7 +3989,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4051,7 +4040,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4102,7 +4091,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4153,7 +4142,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4204,7 +4193,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4255,7 +4244,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4306,7 +4295,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4327,7 +4316,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4348,7 +4337,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4369,7 +4358,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4390,7 +4379,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4411,7 +4400,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4432,7 +4421,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4453,7 +4442,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4504,7 +4493,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4525,7 +4514,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4546,7 +4535,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4567,7 +4556,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4618,7 +4607,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4669,7 +4658,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4687,7 +4676,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4738,7 +4727,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4789,7 +4778,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4840,7 +4829,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4891,7 +4880,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4942,7 +4931,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -4993,7 +4982,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5044,7 +5033,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5062,7 +5051,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5113,7 +5102,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5164,7 +5153,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5181,7 +5170,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5231,7 +5220,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5281,7 +5270,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5331,7 +5320,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5381,1260 +5370,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6673,7 +6662,7 @@
       <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6682,11 +6671,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6702,7 +6691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6725,7 +6714,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6741,7 +6730,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6756,18 +6745,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>4056058.9676495078</v>
+        <v>4048308.8135904786</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.68469440851835828</v>
+        <v>0.68529688173907477</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6781,14 +6770,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>3.1322472339062011</v>
+        <v>3.1202887261131154</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6804,13 +6793,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6829,7 +6818,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6854,7 +6843,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6879,7 +6868,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6902,7 +6891,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6925,7 +6914,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6946,7 +6935,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -6969,7 +6958,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -6987,7 +6976,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7007,7 +6996,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7026,7 +7015,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7046,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7068,7 +7057,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7087,7 +7076,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7109,7 +7098,7 @@
         <v>2867112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7118,7 +7107,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7140,7 +7129,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7169,7 +7158,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7202,7 +7191,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7235,7 +7224,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7264,7 +7253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7276,7 +7265,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7295,7 +7284,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7317,7 +7306,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7337,7 +7326,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7360,7 +7349,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7385,7 +7374,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7406,7 +7395,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7430,7 +7419,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7452,7 +7441,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7471,7 +7460,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7488,7 +7477,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7507,7 +7496,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7526,7 +7515,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7550,7 +7539,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7559,7 +7548,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7578,7 +7567,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7597,7 +7586,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7627,7 +7616,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7657,7 +7646,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7683,7 +7672,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7710,20 +7699,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7740,7 +7729,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7761,7 +7750,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7770,7 +7759,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7781,22 +7770,22 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="213">
+      <c r="D56" s="208">
         <f>I15+I34</f>
         <v>969117</v>
       </c>
-      <c r="E56" s="214"/>
+      <c r="E56" s="209"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7811,7 +7800,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7825,7 +7814,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7834,7 +7823,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7848,7 +7837,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7869,7 +7858,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7890,7 +7879,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7911,7 +7900,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -7926,7 +7915,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -7947,7 +7936,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7957,7 +7946,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -7971,7 +7960,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -7992,7 +7981,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8007,7 +7996,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8028,35 +8017,35 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="211">
+      <c r="C72" s="213">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="211"/>
+      <c r="D72" s="213"/>
       <c r="H72" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="210" t="s">
+      <c r="C73" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="210"/>
-      <c r="E73" s="212" t="s">
+      <c r="D73" s="212"/>
+      <c r="E73" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="210"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="212"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8071,7 +8060,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8092,7 +8081,7 @@
         <v>0.82154354610382485</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8107,7 +8096,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8128,7 +8117,7 @@
         <v>0.1102707353696761</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8143,7 +8132,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8164,7 +8153,7 @@
         <v>1.9909979330197799E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8185,7 +8174,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8209,7 +8198,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8229,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8250,7 +8239,7 @@
         <v>3.6194720593479307E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8261,7 +8250,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8282,7 +8271,7 @@
         <v>2.714604044510948E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8297,7 +8286,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8317,11 +8306,11 @@
         <v>0.81487883299432629</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8331,35 +8320,35 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="208" t="s">
+      <c r="D90" s="210" t="s">
         <v>170</v>
       </c>
-      <c r="E90" s="208"/>
+      <c r="E90" s="210"/>
       <c r="G90" s="94"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C91" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="D91" s="209" t="s">
+      <c r="D91" s="211" t="s">
         <v>220</v>
       </c>
-      <c r="E91" s="209"/>
+      <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3061954331849455E-2</v>
+        <v>3.2998780881559872E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8376,14 +8365,14 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>0.98448109194142142</v>
+        <v>0.98418011550380802</v>
       </c>
       <c r="H92" s="195"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8401,25 +8390,25 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>987375.85773920442</v>
+        <v>985187.935087719</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>0.70169533691595043</v>
+        <v>0.70014045271451231</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>0.5318680047152099</v>
+        <v>0.53068944029519127</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8435,17 +8424,17 @@
       <c r="F96" s="137"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>1319449.577824879</v>
+        <v>1316928.4267314593</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>0.93768913711882773</v>
+        <v>0.93589743849459384</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8453,32 +8442,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>2306825.4355640835</v>
+        <v>2302116.3618191783</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>1.6393844740347783</v>
+        <v>1.636037891209106</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>1.5156381859451658</v>
+        <v>1.5114639373845602</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>2.0492305925434726</v>
+        <v>2.0450473640113827</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8495,34 +8484,34 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>1349155.2856262638</v>
+        <v>1346577.374063204</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>0.95880000030293167</v>
+        <v>0.95696796389187067</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>0.71910000022719878</v>
+        <v>0.71772597291890294</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>1.1985000003786646</v>
+        <v>1.1962099548648384</v>
       </c>
       <c r="H101" s="24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8539,28 +8528,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>1827990.3605951737</v>
+        <v>1824346.867941191</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>1.2990922371688549</v>
+        <v>1.2965029275504882</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>0.97431917787664113</v>
+        <v>0.97237719566286618</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>1.6238652964610687</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.6206286594381103</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/0468.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0468.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3263CD95-91E5-42CD-B76D-1B7D33A5BB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE5718AE-1537-41FC-BF45-CAA0F77EEB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>2.4200000762939453</v>
+        <v>2.4000000953674316</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="G5" s="199">
         <f>G3*G4/1000000</f>
-        <v>3405.2522873554231</v>
+        <v>3377.1097341942786</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="38"/>
@@ -2233,7 +2233,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.0845636924107869</v>
+        <v>1.0842636823654175</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.24407407039862916</v>
+        <v>0.24212390718516782</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>3.2998780881559872E-2</v>
+        <v>3.3264566318910657E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>2.6890008055000993E-2</v>
+        <v>2.7106590982016288E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2469,16 +2469,16 @@
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>1.5114639373845602</v>
+        <v>1.5116270941285195</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>2.0450473640113827</v>
+        <v>2.0456078261846762</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>1.636037891209106</v>
+        <v>1.6364862609477409</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -6752,11 +6752,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>4048308.8135904786</v>
+        <v>4047188.9777345182</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.68529688173907477</v>
+        <v>0.68538393434598766</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6777,7 +6777,7 @@
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>3.1202887261131154</v>
+        <v>3.1185627076317513</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -8344,7 +8344,7 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2998780881559872E-2</v>
+        <v>3.3264566318910657E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>0.98418011550380802</v>
+        <v>0.98544689039626299</v>
       </c>
       <c r="H92" s="195"/>
     </row>
@@ -8396,15 +8396,15 @@
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>985187.935087719</v>
+        <v>986183.13550723577</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>0.70014045271451231</v>
+        <v>0.70084770870846647</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>0.53068944029519127</v>
+        <v>0.5312255231427423</v>
       </c>
       <c r="H95" s="24"/>
     </row>
@@ -8430,11 +8430,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>1316928.4267314593</v>
+        <v>1316564.1403738977</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>0.93589743849459384</v>
+        <v>0.93563855223927428</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8448,19 +8448,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>2302116.3618191783</v>
+        <v>2302747.2758811335</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>1.636037891209106</v>
+        <v>1.6364862609477409</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>1.5114639373845602</v>
+        <v>1.5116270941285195</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>2.0450473640113827</v>
+        <v>2.0456078261846762</v>
       </c>
       <c r="H98" s="24"/>
     </row>
@@ -8490,19 +8490,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>1346577.374063204</v>
+        <v>1346204.8862675007</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>0.95696796389187067</v>
+        <v>0.9567032491459565</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>0.71772597291890294</v>
+        <v>0.7175274368594674</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>1.1962099548648384</v>
+        <v>1.1958790614324457</v>
       </c>
       <c r="H101" s="24" t="s">
         <v>222</v>
@@ -8534,19 +8534,19 @@
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>1824346.867941191</v>
+        <v>1824476.081074317</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>1.2965029275504882</v>
+        <v>1.2965947550468486</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>0.97237719566286618</v>
+        <v>0.97244606628513641</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>1.6206286594381103</v>
+        <v>1.6207434438085608</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/0468.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0468.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F41379-8091-4727-ACB9-CB6588F47EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE68B028-0BA3-4EF5-BD05-BB0A714A856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>2.4000000953674299</v>
+        <v>2.369999885559082</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>3377.1097341942764</v>
+        <v>3334.8955689668655</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
@@ -2511,7 +2511,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.08</v>
+        <v>1.0790773232777913</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2560,7 +2560,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="178">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="111"/>
     </row>
@@ -2606,7 +2606,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="181">
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="182"/>
     </row>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>6.0596680625429604E-2</v>
+        <v>6.1311307721095609E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.6999998927116454E-2</v>
+        <v>2.7318414566671691E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2757,20 +2757,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.2129201835947565</v>
+        <v>1.351080305566942</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.0754518405874749</v>
+        <v>2.3994209771679293</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.6603614724699798</v>
+        <v>1.9195367817343434</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>1.6603614724699798</v>
+        <v>1.9195367817343434</v>
       </c>
       <c r="H29" s="243"/>
     </row>
@@ -10465,17 +10465,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0596680625429604E-2</v>
+        <v>6.1311307721095609E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0596680625429604E-2</v>
+        <v>6.1311307721095609E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0596680625429604E-2</v>
+        <v>6.1311307721095609E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10516,17 +10516,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4999998211860764E-2</v>
+        <v>4.5530690944452827E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6999998927116454E-2</v>
+        <v>2.7318414566671691E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6999998927116454E-2</v>
+        <v>2.7318414566671691E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="C93" s="137">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D93" s="206">
         <v>5</v>
@@ -10584,14 +10584,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>2.258903452904752</v>
+        <v>2.518359921823865</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>228</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>2.258903452904752</v>
+        <v>2.518359921823865</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10609,14 +10609,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>0.85686712168968193</v>
+        <v>0.95355142229448764</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>0.85686712168968193</v>
+        <v>0.95355142229448764</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10656,19 +10656,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2336342.7783952104</v>
+        <v>2701035.8721450646</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>1.2129201835947565</v>
+        <v>1.351080305566942</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>1.6603614724699798</v>
+        <v>1.9195367817343434</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>1.6603614724699798</v>
+        <v>1.9195367817343434</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10716,23 +10716,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2336342.7783952104</v>
+        <v>2701035.8721450646</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>1.2129201835947565</v>
+        <v>1.351080305566942</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>1.6603614724699798</v>
+        <v>1.9195367817343434</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.6603614724699798</v>
+        <v>1.9195367817343434</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>2.0754518405874749</v>
+        <v>2.3994209771679293</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10770,23 +10770,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>886242.08760656184</v>
+        <v>1022719.8166682449</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>0.46009554999780805</v>
+        <v>0.51157284383496249</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>0.62982291432168747</v>
+        <v>0.72681311853301644</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>0.62982291432168747</v>
+        <v>0.72681311853301644</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>0.78727864290210936</v>
+        <v>0.9085163981662705</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10824,23 +10824,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>1611292.4330008859</v>
+        <v>1861877.8444066551</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.83650786679628231</v>
+        <v>0.93132657470095226</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.1450921933958336</v>
+        <v>1.32317495013368</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.1450921933958336</v>
+        <v>1.32317495013368</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.431365241744792</v>
+        <v>1.6539686876671</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0468.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0468.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE68B028-0BA3-4EF5-BD05-BB0A714A856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BE299BA-5FFE-4271-8A0E-DA607A254EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>2.369999885559082</v>
+        <v>2.3299999237060547</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>3334.8955689668655</v>
+        <v>3278.6104626445772</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
@@ -2511,7 +2511,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0790773232777913</v>
+        <v>1.0758796532948811</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>6.1311307721095609E-2</v>
+        <v>6.2179056239830534E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.7318414566671691E-2</v>
+        <v>2.7705056356833013E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2757,20 +2757,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.351080305566942</v>
+        <v>1.3525925901746545</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.3994209771679293</v>
+        <v>2.4021066853351223</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9195367817343434</v>
+        <v>1.9216853482680978</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>1.9195367817343434</v>
+        <v>1.9216853482680978</v>
       </c>
       <c r="H29" s="243"/>
     </row>
@@ -10465,17 +10465,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1311307721095609E-2</v>
+        <v>6.2179056239830534E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1311307721095609E-2</v>
+        <v>6.2179056239830534E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1311307721095609E-2</v>
+        <v>6.2179056239830534E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10516,17 +10516,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5530690944452827E-2</v>
+        <v>4.6175093928055022E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7318414566671691E-2</v>
+        <v>2.7705056356833013E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7318414566671691E-2</v>
+        <v>2.7705056356833013E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10584,14 +10584,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>2.518359921823865</v>
+        <v>2.5286720681772898</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>228</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>2.518359921823865</v>
+        <v>2.5286720681772898</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10609,14 +10609,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>0.95355142229448764</v>
+        <v>0.9553471676216706</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>0.95355142229448764</v>
+        <v>0.9553471676216706</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10656,19 +10656,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2701035.8721450646</v>
+        <v>2704059.1824231399</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>1.351080305566942</v>
+        <v>1.3525925901746545</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>1.9195367817343434</v>
+        <v>1.9216853482680978</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>1.9195367817343434</v>
+        <v>1.9216853482680978</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10716,23 +10716,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2701035.8721450646</v>
+        <v>2704059.1824231399</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>1.351080305566942</v>
+        <v>1.3525925901746545</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>1.9195367817343434</v>
+        <v>1.9216853482680978</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9195367817343434</v>
+        <v>1.9216853482680978</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>2.3994209771679293</v>
+        <v>2.4021066853351223</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10770,23 +10770,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1022719.8166682449</v>
+        <v>1021609.4500823964</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>0.51157284383496249</v>
+        <v>0.51101742935803141</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>0.72681311853301644</v>
+        <v>0.72602401775700476</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>0.72681311853301644</v>
+        <v>0.72602401775700476</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>0.9085163981662705</v>
+        <v>0.90753002219625589</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10824,23 +10824,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>1861877.8444066551</v>
+        <v>1862834.3162527683</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.93132657470095226</v>
+        <v>0.93180500976634295</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.32317495013368</v>
+        <v>1.3238546830125513</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.32317495013368</v>
+        <v>1.3238546830125513</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.6539686876671</v>
+        <v>1.6548183537656891</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0468.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0468.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BE299BA-5FFE-4271-8A0E-DA607A254EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C855828F-CCCF-471F-AB16-09E63403A80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>2.3299999237060547</v>
+        <v>2.4100000858306885</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>3278.6104626445772</v>
+        <v>3391.1810107748506</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
@@ -2511,7 +2511,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0758796532948811</v>
+        <v>1.0742770036061604</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>6.2179056239830534E-2</v>
+        <v>6.0025468657538661E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.7705056356833013E-2</v>
+        <v>2.6745484614434135E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2757,20 +2757,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.3525925901746545</v>
+        <v>1.3369415452869406</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.4021066853351223</v>
+        <v>2.3743115607496748</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9216853482680978</v>
+        <v>1.8994492485997396</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>1.9216853482680978</v>
+        <v>1.8994492485997396</v>
       </c>
       <c r="H29" s="243"/>
     </row>
@@ -10465,17 +10465,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2179056239830534E-2</v>
+        <v>6.0025468657538661E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2179056239830534E-2</v>
+        <v>6.0025468657538661E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2179056239830534E-2</v>
+        <v>6.0025468657538661E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10516,17 +10516,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6175093928055022E-2</v>
+        <v>4.4575807690723564E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7705056356833013E-2</v>
+        <v>2.6745484614434135E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7705056356833013E-2</v>
+        <v>2.6745484614434135E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10584,14 +10584,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>2.5286720681772898</v>
+        <v>2.5031411613145544</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>228</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>2.5286720681772898</v>
+        <v>2.5031411613145544</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10609,14 +10609,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>0.9553471676216706</v>
+        <v>0.95089543392016662</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>0.9553471676216706</v>
+        <v>0.95089543392016662</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10656,19 +10656,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2704059.1824231399</v>
+        <v>2672770.1217329032</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>1.3525925901746545</v>
+        <v>1.3369415452869406</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>1.9216853482680978</v>
+        <v>1.8994492485997396</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>1.9216853482680978</v>
+        <v>1.8994492485997396</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10716,23 +10716,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2704059.1824231399</v>
+        <v>2672770.1217329032</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>1.3525925901746545</v>
+        <v>1.3369415452869406</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>1.9216853482680978</v>
+        <v>1.8994492485997396</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9216853482680978</v>
+        <v>1.8994492485997396</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>2.4021066853351223</v>
+        <v>2.3743115607496748</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10770,23 +10770,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1021609.4500823964</v>
+        <v>1015334.2304272417</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>0.51101742935803141</v>
+        <v>0.50787851299760078</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>0.72602401775700476</v>
+        <v>0.72156442687716738</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>0.72602401775700476</v>
+        <v>0.72156442687716738</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>0.90753002219625589</v>
+        <v>0.90195553359645919</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10824,23 +10824,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>1862834.3162527683</v>
+        <v>1844052.1760800721</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.93180500976634295</v>
+        <v>0.92241002914227077</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.3238546830125513</v>
+        <v>1.3105068377384534</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.3238546830125513</v>
+        <v>1.3105068377384534</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.6548183537656891</v>
+        <v>1.6381335471730667</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0468.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0468.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C855828F-CCCF-471F-AB16-09E63403A80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E42C512-7CBE-D14F-BEE6-46E6FD850F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -892,18 +903,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1370,7 +1381,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="258">
@@ -1426,8 +1437,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1450,14 +1461,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1487,7 +1498,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1592,7 +1603,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1620,7 +1631,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1676,13 +1687,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1724,7 +1735,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1757,16 +1768,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1787,7 +1798,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1812,10 +1823,10 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1824,10 +1835,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1844,13 +1855,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1862,13 +1873,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1906,7 +1917,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1915,10 +1926,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1952,7 +1963,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1966,7 +1977,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1979,20 +1990,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -2371,19 +2382,19 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -2392,7 +2403,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2407,7 +2418,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
@@ -2421,13 +2432,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>2.4100000858306885</v>
+        <v>2.4500000476837158</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
@@ -2447,7 +2458,7 @@
       <c r="H4" s="252"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
@@ -2462,13 +2473,13 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>3391.1810107748506</v>
+        <v>3447.4661170971394</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -2494,7 +2505,7 @@
       <c r="H6" s="245"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>209</v>
       </c>
@@ -2511,15 +2522,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0742770036061604</v>
+        <v>1.074550986289978</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>207</v>
       </c>
@@ -2527,7 +2538,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>190</v>
       </c>
@@ -2538,7 +2549,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="123" t="s">
         <v>194</v>
       </c>
@@ -2552,7 +2563,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>142</v>
       </c>
@@ -2564,8 +2575,8 @@
       </c>
       <c r="F12" s="111"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>191</v>
       </c>
@@ -2576,7 +2587,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>202</v>
       </c>
@@ -2587,7 +2598,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="123" t="s">
         <v>203</v>
       </c>
@@ -2601,7 +2612,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>196</v>
       </c>
@@ -2610,8 +2621,8 @@
       </c>
       <c r="D17" s="182"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="143" t="s">
         <v>199</v>
       </c>
@@ -2626,7 +2637,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="138" t="s">
         <v>181</v>
       </c>
@@ -2638,10 +2649,10 @@
         <v>230</v>
       </c>
       <c r="G20" s="178">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="138" t="s">
         <v>182</v>
       </c>
@@ -2652,7 +2663,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="138" t="s">
         <v>183</v>
       </c>
@@ -2664,7 +2675,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="138" t="s">
         <v>184</v>
       </c>
@@ -2680,7 +2691,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="138" t="s">
         <v>185</v>
       </c>
@@ -2693,10 +2704,10 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>6.0025468657538661E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>5.9060520863546122E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="138" t="s">
         <v>208</v>
       </c>
@@ -2712,7 +2723,7 @@
         <v>0.44556894286030935</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="139" t="s">
         <v>187</v>
       </c>
@@ -2725,11 +2736,11 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.6745484614434135E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.6315533845949486E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -2751,923 +2762,923 @@
       </c>
       <c r="H28" s="242"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>180</v>
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.3369415452869406</v>
+        <v>0.87737387533042033</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.3743115607496748</v>
+        <v>2.3641272559106592</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.8994492485997396</v>
+        <v>1.891301804728527</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>1.8994492485997396</v>
+        <v>1.8913018047285273</v>
       </c>
       <c r="H29" s="243"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -3733,20 +3744,20 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.06640625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="142" t="s">
         <v>211</v>
       </c>
@@ -3761,7 +3772,7 @@
         <v>CNY</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="B5" s="142" t="s">
         <v>212</v>
       </c>
@@ -3777,7 +3788,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="142" t="s">
         <v>175</v>
       </c>
@@ -3791,7 +3802,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="141" t="s">
         <v>4</v>
       </c>
@@ -3799,7 +3810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="141" t="s">
         <v>235</v>
       </c>
@@ -3807,7 +3818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="141" t="s">
         <v>236</v>
       </c>
@@ -3815,7 +3826,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="141" t="s">
         <v>237</v>
       </c>
@@ -3823,7 +3834,7 @@
         <v>1407129000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="141" t="s">
         <v>238</v>
       </c>
@@ -3831,7 +3842,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="227" t="s">
         <v>10</v>
       </c>
@@ -3839,7 +3850,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="227" t="s">
         <v>11</v>
       </c>
@@ -3847,7 +3858,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="227" t="s">
         <v>240</v>
       </c>
@@ -3855,7 +3866,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="227" t="s">
         <v>239</v>
       </c>
@@ -3863,7 +3874,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="234" t="s">
         <v>98</v>
       </c>
@@ -3872,7 +3883,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="116" t="s">
         <v>144</v>
       </c>
@@ -3921,7 +3932,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="94" t="s">
         <v>12</v>
       </c>
@@ -3941,7 +3952,7 @@
       <c r="L19" s="152"/>
       <c r="M19" s="152"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="97" t="s">
         <v>109</v>
       </c>
@@ -3961,7 +3972,7 @@
       <c r="L20" s="153"/>
       <c r="M20" s="153"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
@@ -3981,7 +3992,7 @@
       <c r="L21" s="153"/>
       <c r="M21" s="153"/>
     </row>
-    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="97" t="s">
         <v>108</v>
       </c>
@@ -3997,7 +4008,7 @@
       <c r="L22" s="153"/>
       <c r="M22" s="153"/>
     </row>
-    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="97" t="s">
         <v>110</v>
       </c>
@@ -4013,7 +4024,7 @@
       <c r="L23" s="153"/>
       <c r="M23" s="153"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="97" t="s">
         <v>111</v>
       </c>
@@ -4029,7 +4040,7 @@
       <c r="L24" s="153"/>
       <c r="M24" s="153"/>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="97" t="s">
         <v>113</v>
       </c>
@@ -4045,7 +4056,7 @@
       <c r="L25" s="153"/>
       <c r="M25" s="153"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>129</v>
       </c>
@@ -4065,7 +4076,7 @@
       <c r="L26" s="153"/>
       <c r="M26" s="153"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="99" t="s">
         <v>114</v>
       </c>
@@ -4081,7 +4092,7 @@
       <c r="L27" s="153"/>
       <c r="M27" s="153"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="94" t="s">
         <v>15</v>
       </c>
@@ -4097,7 +4108,7 @@
       <c r="L28" s="153"/>
       <c r="M28" s="153"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>121</v>
       </c>
@@ -4113,7 +4124,7 @@
       <c r="L29" s="153"/>
       <c r="M29" s="153"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B30" s="94" t="s">
         <v>159</v>
       </c>
@@ -4129,7 +4140,7 @@
       <c r="L30" s="153"/>
       <c r="M30" s="153"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="94" t="s">
         <v>16</v>
       </c>
@@ -4145,7 +4156,7 @@
       <c r="L31" s="153"/>
       <c r="M31" s="153"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="94" t="s">
         <v>120</v>
       </c>
@@ -4161,7 +4172,7 @@
       <c r="L32" s="153"/>
       <c r="M32" s="153"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="94" t="s">
         <v>17</v>
       </c>
@@ -4177,7 +4188,7 @@
       <c r="L33" s="153"/>
       <c r="M33" s="153"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>18</v>
       </c>
@@ -4193,7 +4204,7 @@
       <c r="L34" s="153"/>
       <c r="M34" s="153"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>148</v>
       </c>
@@ -4209,7 +4220,7 @@
       <c r="L35" s="153"/>
       <c r="M35" s="153"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
@@ -4225,7 +4236,7 @@
       <c r="L36" s="153"/>
       <c r="M36" s="153"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>147</v>
       </c>
@@ -4241,7 +4252,7 @@
       <c r="L37" s="153"/>
       <c r="M37" s="153"/>
     </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="203" t="s">
         <v>33</v>
       </c>
@@ -4255,7 +4266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
@@ -4265,7 +4276,7 @@
       </c>
       <c r="E40" s="113"/>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>146</v>
       </c>
@@ -4275,7 +4286,7 @@
       </c>
       <c r="E41" s="113"/>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>121</v>
       </c>
@@ -4286,7 +4297,7 @@
       </c>
       <c r="E42" s="113"/>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -4296,7 +4307,7 @@
       </c>
       <c r="E43" s="113"/>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -4306,7 +4317,7 @@
       </c>
       <c r="E44" s="113"/>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>170</v>
       </c>
@@ -4317,7 +4328,7 @@
       </c>
       <c r="E45" s="113"/>
     </row>
-    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>122</v>
       </c>
@@ -4327,7 +4338,7 @@
       </c>
       <c r="E46" s="113"/>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -4338,7 +4349,7 @@
       </c>
       <c r="E47" s="113"/>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -4351,7 +4362,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>124</v>
       </c>
@@ -4363,7 +4374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -4374,7 +4385,7 @@
       </c>
       <c r="E50" s="113"/>
     </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="35" t="s">
         <v>51</v>
       </c>
@@ -4385,7 +4396,7 @@
       </c>
       <c r="E51" s="113"/>
     </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -4396,7 +4407,7 @@
       </c>
       <c r="E52" s="113"/>
     </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
@@ -4407,7 +4418,7 @@
       </c>
       <c r="E53" s="113"/>
     </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
@@ -4418,7 +4429,7 @@
       </c>
       <c r="E54" s="113"/>
     </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>171</v>
       </c>
@@ -4429,7 +4440,7 @@
       </c>
       <c r="E55" s="113"/>
     </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
@@ -4439,7 +4450,7 @@
       </c>
       <c r="E56" s="113"/>
     </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
@@ -4451,7 +4462,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
@@ -4463,7 +4474,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -4476,7 +4487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>123</v>
       </c>
@@ -4487,7 +4498,7 @@
       </c>
       <c r="E60" s="113"/>
     </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
@@ -4498,7 +4509,7 @@
       </c>
       <c r="E61" s="113"/>
     </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
@@ -4508,7 +4519,7 @@
       </c>
       <c r="E62" s="113"/>
     </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
@@ -4519,7 +4530,7 @@
       </c>
       <c r="E63" s="113"/>
     </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>76</v>
       </c>
@@ -4529,100 +4540,100 @@
       </c>
       <c r="E64" s="113"/>
     </row>
-    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="203" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="201"/>
     </row>
-    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C66" s="59"/>
     </row>
-    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="59"/>
     </row>
-    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="121"/>
     </row>
-    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="83"/>
     </row>
-    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="59"/>
     </row>
-    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C72" s="59"/>
     </row>
-    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C74" s="121"/>
     </row>
-    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B75" s="80" t="s">
         <v>85</v>
       </c>
       <c r="C75" s="83"/>
     </row>
-    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B76" s="73" t="s">
         <v>241</v>
       </c>
       <c r="C76" s="59"/>
     </row>
-    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B77" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B78" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="20"/>
     </row>
-    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="20"/>
     </row>
   </sheetData>
@@ -4675,7 +4686,7 @@
       <selection pane="topRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -4683,7 +4694,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -4691,7 +4702,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -4716,7 +4727,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="104" t="s">
         <v>10</v>
@@ -4745,7 +4756,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="104" t="s">
         <v>11</v>
@@ -4767,7 +4778,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="116" t="s">
         <v>144</v>
@@ -4817,7 +4828,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -4868,7 +4879,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -4919,7 +4930,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>109</v>
@@ -4970,7 +4981,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>105</v>
@@ -5021,7 +5032,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>107</v>
@@ -5072,7 +5083,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="94" t="s">
         <v>100</v>
@@ -5123,7 +5134,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="97" t="s">
         <v>108</v>
@@ -5174,7 +5185,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="98" t="s">
         <v>106</v>
@@ -5225,7 +5236,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="97" t="s">
         <v>110</v>
@@ -5276,7 +5287,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="97" t="s">
         <v>111</v>
@@ -5327,7 +5338,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>113</v>
@@ -5378,7 +5389,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>129</v>
@@ -5429,7 +5440,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="99" t="s">
         <v>114</v>
@@ -5480,7 +5491,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="236" t="s">
         <v>216</v>
@@ -5531,7 +5542,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="236" t="s">
         <v>217</v>
@@ -5582,7 +5593,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="94" t="s">
         <v>115</v>
@@ -5633,7 +5644,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>116</v>
@@ -5684,7 +5695,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>117</v>
@@ -5735,7 +5746,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="102" t="s">
         <v>118</v>
@@ -5786,7 +5797,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="101" t="s">
         <v>138</v>
@@ -5837,7 +5848,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="115" t="s">
         <v>145</v>
@@ -5888,7 +5899,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -5939,7 +5950,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -5990,7 +6001,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>121</v>
@@ -6041,7 +6052,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>159</v>
@@ -6092,7 +6103,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -6143,7 +6154,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>120</v>
@@ -6194,7 +6205,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -6245,7 +6256,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -6296,7 +6307,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -6347,7 +6358,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>148</v>
@@ -6398,7 +6409,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>149</v>
@@ -6449,7 +6460,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>147</v>
@@ -6500,7 +6511,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>151</v>
@@ -6551,7 +6562,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>169</v>
@@ -6602,7 +6613,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>132</v>
@@ -6620,7 +6631,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>99</v>
@@ -6671,7 +6682,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>126</v>
@@ -6722,7 +6733,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>101</v>
@@ -6773,7 +6784,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>112</v>
@@ -6824,7 +6835,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>127</v>
@@ -6875,7 +6886,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>139</v>
@@ -6926,7 +6937,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>130</v>
@@ -6977,7 +6988,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="103" t="s">
         <v>160</v>
@@ -6995,7 +7006,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>157</v>
@@ -7046,7 +7057,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>158</v>
@@ -7097,7 +7108,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="103" t="s">
         <v>131</v>
@@ -7114,7 +7125,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -7164,7 +7175,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>125</v>
@@ -7214,14 +7225,14 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>128</v>
       </c>
       <c r="C55" s="157">
         <f>IF(C21="","",IF(MAX(C17,0)&lt;=0,"-",C17/C21))</f>
-        <v>3.0077896170104972E-2</v>
+        <v>3.0077896170104968E-2</v>
       </c>
       <c r="D55" s="157">
         <f t="shared" ref="D55:M55" si="43">IF(D21="","",IF(MAX(D17,0)&lt;=0,"-",D17/D21))</f>
@@ -7264,7 +7275,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -7314,1260 +7325,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -8611,7 +8622,7 @@
       <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -8619,11 +8630,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -8639,7 +8650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -8663,7 +8674,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -8679,7 +8690,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -8694,7 +8705,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -8719,7 +8730,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -8742,13 +8753,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -8768,7 +8779,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -8793,7 +8804,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -8821,7 +8832,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>146</v>
       </c>
@@ -8849,7 +8860,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -8877,7 +8888,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -8905,7 +8916,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -8932,7 +8943,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>170</v>
       </c>
@@ -8954,7 +8965,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -8976,7 +8987,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -8997,7 +9008,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -9022,7 +9033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -9049,7 +9060,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -9070,7 +9081,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -9096,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -9105,7 +9116,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -9127,7 +9138,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -9156,7 +9167,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -9189,7 +9200,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -9222,7 +9233,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -9252,7 +9263,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -9264,7 +9275,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -9290,7 +9301,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -9317,7 +9328,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -9344,7 +9355,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>171</v>
       </c>
@@ -9374,7 +9385,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -9401,7 +9412,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -9427,7 +9438,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -9454,7 +9465,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -9481,7 +9492,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -9502,7 +9513,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -9523,7 +9534,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -9544,7 +9555,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -9565,7 +9576,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -9591,7 +9602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -9600,7 +9611,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -9619,7 +9630,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -9638,7 +9649,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -9668,7 +9679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -9698,7 +9709,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -9725,7 +9736,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -9752,20 +9763,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -9782,7 +9793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -9803,7 +9814,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -9812,7 +9823,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>161</v>
       </c>
@@ -9823,7 +9834,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -9838,7 +9849,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -9854,7 +9865,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -9869,7 +9880,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -9878,7 +9889,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>164</v>
       </c>
@@ -9892,7 +9903,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -9913,7 +9924,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>150</v>
       </c>
@@ -9934,7 +9945,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>152</v>
       </c>
@@ -9955,7 +9966,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="122" t="s">
         <v>162</v>
       </c>
@@ -9970,7 +9981,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>153</v>
       </c>
@@ -9991,7 +10002,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -10001,7 +10012,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>165</v>
       </c>
@@ -10015,7 +10026,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>151</v>
       </c>
@@ -10036,7 +10047,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="122" t="s">
         <v>163</v>
       </c>
@@ -10051,7 +10062,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>154</v>
       </c>
@@ -10072,7 +10083,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="107" t="s">
         <v>137</v>
@@ -10094,7 +10105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -10113,7 +10124,7 @@
       <c r="I73" s="255"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -10134,7 +10145,7 @@
       <c r="I74" s="218"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="105" t="s">
         <v>109</v>
       </c>
@@ -10164,7 +10175,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -10185,7 +10196,7 @@
       <c r="I76" s="219"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="105" t="s">
         <v>133</v>
       </c>
@@ -10215,7 +10226,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -10236,7 +10247,7 @@
       <c r="I78" s="219"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="105" t="s">
         <v>129</v>
       </c>
@@ -10266,7 +10277,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -10296,7 +10307,7 @@
       </c>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -10327,7 +10338,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="73" t="s">
         <v>186</v>
       </c>
@@ -10357,7 +10368,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="106" t="s">
         <v>134</v>
       </c>
@@ -10387,7 +10398,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -10408,7 +10419,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="86" t="s">
         <v>176</v>
       </c>
@@ -10438,7 +10449,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
         <v>172</v>
       </c>
@@ -10459,28 +10470,28 @@
       <c r="I86" s="218"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
         <v>227</v>
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0025468657538661E-2</v>
+        <v>5.9060520863546122E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0025468657538661E-2</v>
+        <v>5.9060520863546122E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0025468657538661E-2</v>
+        <v>5.9060520863546122E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="86" t="s">
         <v>226</v>
       </c>
@@ -10510,32 +10521,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="87" t="s">
         <v>245</v>
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4575807690723564E-2</v>
+        <v>4.3859223076582479E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6745484614434135E-2</v>
+        <v>2.6315533845949486E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6745484614434135E-2</v>
+        <v>2.6315533845949486E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="107" t="s">
         <v>166</v>
@@ -10545,7 +10556,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
         <v>167</v>
       </c>
@@ -10567,7 +10578,7 @@
       <c r="I92" s="254"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Required Return"</f>
         <v>CN Required Return</v>
@@ -10584,24 +10595,24 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>2.5031411613145544</v>
+        <v>2.4917687598682758</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>228</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>2.5031411613145544</v>
+        <v>2.4917687598682758</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C94" s="188">
         <f>Dashboard!G20</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D94" s="147"/>
       <c r="E94" s="87" t="s">
@@ -10609,22 +10620,22 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>0.95089543392016662</v>
+        <v>0.94890615824693292</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>0.95089543392016662</v>
+        <v>0.94890615824693292</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="107" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -10650,30 +10661,30 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2672770.1217329032</v>
+        <v>2661305.6171858478</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>1.3369415452869406</v>
+        <v>0.87737387533042033</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>1.8994492485997396</v>
+        <v>1.891301804728527</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>1.8994492485997396</v>
+        <v>1.891301804728527</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>155</v>
       </c>
@@ -10690,7 +10701,7 @@
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="106" t="s">
         <v>156</v>
       </c>
@@ -10710,37 +10721,37 @@
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2672770.1217329032</v>
+        <v>2661305.6171858478</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>1.3369415452869406</v>
+        <v>0.87737387533042033</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>1.8994492485997396</v>
+        <v>1.891301804728527</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.8994492485997396</v>
+        <v>1.8913018047285273</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>2.3743115607496748</v>
+        <v>2.3641272559106592</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
         <v>174</v>
       </c>
@@ -10764,37 +10775,37 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1015334.2304272417</v>
+        <v>1013468.5568729513</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>0.50787851299760078</v>
+        <v>0.33411827244757014</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>0.72156442687716738</v>
+        <v>0.72023855444166907</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>0.72156442687716738</v>
+        <v>0.72023855444166907</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>0.90195553359645919</v>
+        <v>0.90029819305208636</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
         <v>214</v>
       </c>
@@ -10818,36 +10829,36 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>1844052.1760800721</v>
+        <v>1837387.0870293994</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.92241002914227077</v>
+        <v>0.60574607388899526</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.3105068377384534</v>
+        <v>1.305770179585098</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.3105068377384534</v>
+        <v>1.3057701795850982</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.6381335471730667</v>
+        <v>1.6322127244813727</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
         <v>177</v>
       </c>
